--- a/pred_ohlcv/54_21/2019-10-17 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LOOM ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-2008407.3775</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2010464.4296</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2010454.4296</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2016971.4296</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2002228.3744</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2010128.3744</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1995792.8386</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1992242.4928</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1992242.4928</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2068277.2475</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2387063.2225</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2379947.353</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2379947.353</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2359799.974</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2378866.7293</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2390527.0618</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2405624.958</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2284894.8133</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1944253.395399999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1939339.891</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1939970.891</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1883607.7554</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1816447.6179</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1816447.6179</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1796011.6179</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1796861.403</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1769983.5973</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1769983.5973</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1770886.6519</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1612592.0304</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1616359.0304</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LOOM ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-2008407.3775</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2010464.4296</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2010454.4296</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2016971.4296</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1984468.1558</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2002228.3744</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2010128.3744</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2149783.5124</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2140783.5124</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2330887.842</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2387063.2225</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2379947.353</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2379947.353</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2379947.353</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2383770.353</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2393745.853</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2359799.974</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2378866.7293</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2368639.0618</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2396070.0618</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2390527.0618</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2407397.8326</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2416434.958</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2405624.958</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2284894.8133</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1944253.395399999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1942070.2196</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1950606.1628</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1939339.891</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1939970.891</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1883607.7554</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1816447.6179</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1796011.6179</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1796861.403</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1769983.5973</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1770886.6519</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
